--- a/biology/Botanique/Jardins_de_mademoiselle_de_La_Vallière/Jardins_de_mademoiselle_de_La_Vallière.xlsx
+++ b/biology/Botanique/Jardins_de_mademoiselle_de_La_Vallière/Jardins_de_mademoiselle_de_La_Vallière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_de_mademoiselle_de_La_Valli%C3%A8re</t>
+          <t>Jardins_de_mademoiselle_de_La_Vallière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Jardins de Mlle de La Vallière, appelé aussi parc du château, ou parc de la mairie[1], est un jardin situé à Carrières-sur-Seine dans les Yvelines. 
+Les Jardins de Mlle de La Vallière, appelé aussi parc du château, ou parc de la mairie, est un jardin situé à Carrières-sur-Seine dans les Yvelines. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_de_mademoiselle_de_La_Valli%C3%A8re</t>
+          <t>Jardins_de_mademoiselle_de_La_Vallière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louise de La Vallière, favorite du roi Louis XIV aurait résidé à Carrières-sur-Seine entre 1661 et 1670. Dessinés par André Le Nôtre, les jardins du château ont été aménagés par son petit-neveu Claude Desgots, un architecte paysagiste. La favorite s'y serait promenée[2],[1]. 
-Le parc est un site classé[3] en 1945[4],[5] et se trouve depuis 1996 sur la liste des Plus beaux jardins de France du Conservatoire des Jardins et Paysages[1]. Il a été endommagé lors de la tempête de décembre 1999. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louise de La Vallière, favorite du roi Louis XIV aurait résidé à Carrières-sur-Seine entre 1661 et 1670. Dessinés par André Le Nôtre, les jardins du château ont été aménagés par son petit-neveu Claude Desgots, un architecte paysagiste. La favorite s'y serait promenée,. 
+Le parc est un site classé en 1945, et se trouve depuis 1996 sur la liste des Plus beaux jardins de France du Conservatoire des Jardins et Paysages. Il a été endommagé lors de la tempête de décembre 1999. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardins_de_mademoiselle_de_La_Valli%C3%A8re</t>
+          <t>Jardins_de_mademoiselle_de_La_Vallière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jardins, fait de paliers et de bassins et réalisés à l'époque du jardin à la française au XVIIe siècle, descendent du château vers la Seine[1].
-Une reproduction du tableau Carrières-Saint-Denis, peint par de Claude Monet en 1872, se trouve à l'entrée du parc, sur le Chemin des Impressionnistes[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jardins, fait de paliers et de bassins et réalisés à l'époque du jardin à la française au XVIIe siècle, descendent du château vers la Seine.
+Une reproduction du tableau Carrières-Saint-Denis, peint par de Claude Monet en 1872, se trouve à l'entrée du parc, sur le Chemin des Impressionnistes.
 </t>
         </is>
       </c>
